--- a/data/data_블록130개_정반6개.xlsx
+++ b/data/data_블록130개_정반6개.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42179B02-0F64-4B51-AA66-2AA76A78EA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02986CC3-3E9E-4649-9DCC-98BF0097DBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,9 +527,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -882,20 +879,18 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3">
-        <f ca="1">RANDBETWEEN(5, 15)</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <f ca="1">RANDBETWEEN(6, 15)</f>
-        <v>6</v>
+      <c r="B2" s="1">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E65" ca="1" si="0">ROUND(C2*D2/12,0)</f>
-        <v>3</v>
+        <f t="shared" ref="E2:E65" si="0">ROUND(C2*D2/12,0)</f>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
         <v>45311</v>
@@ -905,20 +900,18 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>120</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(5, 15)</f>
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D66" ca="1" si="2">RANDBETWEEN(6, 15)</f>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
         <v>9</v>
       </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
       <c r="E3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F3" s="2">
         <v>45311</v>
@@ -928,20 +921,18 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>90</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+      <c r="B4" s="1">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
         <v>45311</v>
@@ -952,19 +943,17 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>84</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F5" s="2">
         <v>45311</v>
@@ -975,19 +964,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>81</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
       <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>45311</v>
@@ -998,19 +985,17 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>89</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>95</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
         <v>45311</v>
@@ -1021,19 +1006,17 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>88</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F8" s="2">
         <v>45311</v>
@@ -1044,19 +1027,17 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>89</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F9" s="2">
         <v>45311</v>
@@ -1067,19 +1048,17 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>81</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>45311</v>
@@ -1090,18 +1069,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>90</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F11" s="2">
@@ -1113,19 +1090,17 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>82</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F12" s="2">
         <v>45311</v>
@@ -1136,19 +1111,17 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>84</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
         <v>45311</v>
@@ -1159,19 +1132,17 @@
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>95</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
         <v>45311</v>
@@ -1182,18 +1153,16 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>84</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C15" s="1">
         <v>13</v>
       </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F15" s="2">
@@ -1205,18 +1174,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>88</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F16" s="2">
@@ -1228,19 +1195,17 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
       </c>
       <c r="F17" s="2">
         <v>45311</v>
@@ -1251,19 +1216,17 @@
         <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F18" s="2">
         <v>45311</v>
@@ -1274,19 +1237,17 @@
         <v>26</v>
       </c>
       <c r="B19" s="1">
-        <v>85</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F19" s="2">
         <v>45311</v>
@@ -1297,18 +1258,16 @@
         <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>84</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F20" s="2">
@@ -1320,19 +1279,17 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>84</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="F21" s="2">
         <v>45311</v>
@@ -1343,19 +1300,17 @@
         <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>86</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
         <v>45321</v>
@@ -1366,18 +1321,16 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F23" s="2">
@@ -1389,18 +1342,16 @@
         <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>86</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F24" s="2">
@@ -1412,19 +1363,17 @@
         <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>80</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F25" s="2">
         <v>45321</v>
@@ -1435,19 +1384,17 @@
         <v>33</v>
       </c>
       <c r="B26" s="1">
-        <v>87</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>14</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F26" s="2">
         <v>45321</v>
@@ -1458,19 +1405,17 @@
         <v>34</v>
       </c>
       <c r="B27" s="1">
-        <v>80</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C27" s="1">
         <v>9</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+      <c r="D27" s="1">
+        <v>13</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F27" s="2">
         <v>45321</v>
@@ -1481,19 +1426,17 @@
         <v>35</v>
       </c>
       <c r="B28" s="1">
-        <v>80</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F28" s="2">
         <v>45321</v>
@@ -1504,19 +1447,17 @@
         <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>87</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>11</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F29" s="2">
         <v>45321</v>
@@ -1527,19 +1468,17 @@
         <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>87</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
       </c>
       <c r="F30" s="2">
         <v>45321</v>
@@ -1550,19 +1489,17 @@
         <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>86</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
         <v>15</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" ca="1" si="2"/>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
       </c>
       <c r="F31" s="2">
         <v>45321</v>
@@ -1573,19 +1510,17 @@
         <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>86</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>95</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>14</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F32" s="2">
         <v>45321</v>
@@ -1596,19 +1531,17 @@
         <v>40</v>
       </c>
       <c r="B33" s="1">
-        <v>83</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>95</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>14</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F33" s="2">
         <v>45321</v>
@@ -1619,19 +1552,17 @@
         <v>41</v>
       </c>
       <c r="B34" s="1">
-        <v>89</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F34" s="2">
         <v>45321</v>
@@ -1642,19 +1573,17 @@
         <v>42</v>
       </c>
       <c r="B35" s="1">
-        <v>84</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F35" s="2">
         <v>45321</v>
@@ -1665,19 +1594,17 @@
         <v>43</v>
       </c>
       <c r="B36" s="1">
-        <v>90</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F36" s="2">
         <v>45321</v>
@@ -1688,19 +1615,17 @@
         <v>44</v>
       </c>
       <c r="B37" s="1">
-        <v>81</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F37" s="2">
         <v>45321</v>
@@ -1711,19 +1636,17 @@
         <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>84</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
       </c>
       <c r="F38" s="2">
         <v>45321</v>
@@ -1734,19 +1657,17 @@
         <v>46</v>
       </c>
       <c r="B39" s="1">
-        <v>84</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>95</v>
+      </c>
+      <c r="C39" s="1">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>11</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="F39" s="2">
         <v>45321</v>
@@ -1757,19 +1678,17 @@
         <v>47</v>
       </c>
       <c r="B40" s="1">
-        <v>90</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
       </c>
       <c r="F40" s="2">
         <v>45321</v>
@@ -1780,19 +1699,17 @@
         <v>48</v>
       </c>
       <c r="B41" s="1">
-        <v>82</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="C41" s="1">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1">
+        <v>11</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="F41" s="2">
         <v>45321</v>
@@ -1803,19 +1720,17 @@
         <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>83</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>15</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F42" s="2">
         <v>45337</v>
@@ -1826,19 +1741,17 @@
         <v>50</v>
       </c>
       <c r="B43" s="1">
-        <v>90</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>11</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F43" s="2">
         <v>45337</v>
@@ -1849,19 +1762,17 @@
         <v>51</v>
       </c>
       <c r="B44" s="1">
-        <v>87</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C44" s="1">
         <v>9</v>
       </c>
+      <c r="D44" s="1">
+        <v>11</v>
+      </c>
       <c r="E44" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F44" s="2">
         <v>45337</v>
@@ -1872,18 +1783,16 @@
         <v>52</v>
       </c>
       <c r="B45" s="1">
-        <v>82</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F45" s="2">
@@ -1895,19 +1804,17 @@
         <v>53</v>
       </c>
       <c r="B46" s="1">
-        <v>87</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>77</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F46" s="2">
         <v>45337</v>
@@ -1918,19 +1825,17 @@
         <v>54</v>
       </c>
       <c r="B47" s="1">
-        <v>85</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1">
+        <v>14</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="F47" s="2">
         <v>45337</v>
@@ -1941,19 +1846,17 @@
         <v>55</v>
       </c>
       <c r="B48" s="1">
-        <v>90</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C48" s="1">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F48" s="2">
         <v>45337</v>
@@ -1964,19 +1867,17 @@
         <v>56</v>
       </c>
       <c r="B49" s="1">
-        <v>87</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
         <v>6</v>
       </c>
-      <c r="D49" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
       <c r="E49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F49" s="2">
         <v>45337</v>
@@ -1987,19 +1888,17 @@
         <v>57</v>
       </c>
       <c r="B50" s="1">
-        <v>88</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C50" s="1">
         <v>8</v>
       </c>
+      <c r="D50" s="1">
+        <v>10</v>
+      </c>
       <c r="E50" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F50" s="2">
         <v>45337</v>
@@ -2010,19 +1909,17 @@
         <v>58</v>
       </c>
       <c r="B51" s="1">
-        <v>80</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C51" s="1">
         <v>14</v>
       </c>
-      <c r="D51" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+      <c r="D51" s="1">
+        <v>13</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="F51" s="2">
         <v>45337</v>
@@ -2033,20 +1930,17 @@
         <v>59</v>
       </c>
       <c r="B52" s="1">
-        <f ca="1">RANDBETWEEN(80, 95)</f>
-        <v>86</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F52" s="2">
         <v>45337</v>
@@ -2057,20 +1951,17 @@
         <v>60</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" ref="B53:B116" ca="1" si="3">RANDBETWEEN(80, 95)</f>
-        <v>81</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="C53" s="1">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F53" s="2">
         <v>45337</v>
@@ -2081,20 +1972,17 @@
         <v>61</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="C54" s="1">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F54" s="2">
         <v>45337</v>
@@ -2105,20 +1993,17 @@
         <v>62</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="C55" s="1">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F55" s="2">
         <v>45337</v>
@@ -2129,20 +2014,17 @@
         <v>63</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>11</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F56" s="2">
         <v>45337</v>
@@ -2153,20 +2035,17 @@
         <v>64</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
         <v>10</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F57" s="2">
         <v>45337</v>
@@ -2177,20 +2056,17 @@
         <v>65</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="C58" s="1">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>14</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="F58" s="2">
         <v>45337</v>
@@ -2201,20 +2077,17 @@
         <v>66</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
         <v>15</v>
       </c>
-      <c r="D59" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
       <c r="E59" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F59" s="2">
         <v>45337</v>
@@ -2225,20 +2098,17 @@
         <v>67</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="C60" s="1">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1">
+        <v>7</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F60" s="2">
         <v>45337</v>
@@ -2249,20 +2119,17 @@
         <v>68</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F61" s="2">
         <v>45352</v>
@@ -2273,20 +2140,17 @@
         <v>69</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F62" s="2">
         <v>45352</v>
@@ -2297,20 +2161,17 @@
         <v>70</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D63" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="C63" s="1">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F63" s="2">
         <v>45352</v>
@@ -2321,20 +2182,17 @@
         <v>71</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C64" s="1">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
       </c>
       <c r="F64" s="2">
         <v>45352</v>
@@ -2345,20 +2203,17 @@
         <v>72</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="C65" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1">
+        <v>9</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F65" s="2">
         <v>45352</v>
@@ -2369,20 +2224,17 @@
         <v>73</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="C66" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>95</v>
+      </c>
+      <c r="C66" s="1">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1">
+        <v>14</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E101" ca="1" si="4">ROUND(C66*D66/12,0)</f>
-        <v>4</v>
+        <f t="shared" ref="E66:E101" si="1">ROUND(C66*D66/12,0)</f>
+        <v>16</v>
       </c>
       <c r="F66" s="2">
         <v>45352</v>
@@ -2393,20 +2245,17 @@
         <v>74</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="C67" s="3">
-        <f t="shared" ref="C67:C130" ca="1" si="5">RANDBETWEEN(5, 15)</f>
-        <v>10</v>
-      </c>
-      <c r="D67" s="3">
-        <f t="shared" ref="D67:D130" ca="1" si="6">RANDBETWEEN(6, 15)</f>
+        <v>46</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
         <v>13</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F67" s="2">
         <v>45352</v>
@@ -2417,20 +2266,17 @@
         <v>75</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="C68" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C68" s="1">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1">
         <v>14</v>
       </c>
-      <c r="D68" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
-      </c>
       <c r="E68" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="F68" s="2">
         <v>45352</v>
@@ -2441,20 +2287,17 @@
         <v>76</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="C69" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="D69" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="C69" s="1">
         <v>12</v>
       </c>
+      <c r="D69" s="1">
+        <v>13</v>
+      </c>
       <c r="E69" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="F69" s="2">
         <v>45352</v>
@@ -2465,20 +2308,17 @@
         <v>77</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="C70" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="C70" s="1">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1">
+        <v>15</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F70" s="2">
         <v>45352</v>
@@ -2489,19 +2329,16 @@
         <v>78</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="C71" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D71" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="C71" s="1">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F71" s="2">
@@ -2513,20 +2350,17 @@
         <v>79</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="C72" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="D72" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F72" s="2">
         <v>45352</v>
@@ -2537,20 +2371,17 @@
         <v>80</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="C73" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="D73" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>82</v>
+      </c>
+      <c r="C73" s="1">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>13</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F73" s="2">
         <v>45352</v>
@@ -2561,20 +2392,17 @@
         <v>81</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="C74" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D74" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1">
+        <v>6</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F74" s="2">
         <v>45352</v>
@@ -2585,20 +2413,17 @@
         <v>82</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="C75" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>9</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F75" s="2">
         <v>45352</v>
@@ -2609,20 +2434,17 @@
         <v>83</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="C76" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D76" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>11</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F76" s="2">
         <v>45352</v>
@@ -2633,20 +2455,17 @@
         <v>84</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="C77" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="D77" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>95</v>
+      </c>
+      <c r="C77" s="1">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1">
+        <v>15</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="F77" s="2">
         <v>45352</v>
@@ -2657,20 +2476,17 @@
         <v>85</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="C78" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D78" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="C78" s="1">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1">
+        <v>11</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F78" s="2">
         <v>45352</v>
@@ -2681,20 +2497,17 @@
         <v>86</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="C79" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="D79" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="C79" s="1">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1">
+        <v>8</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="F79" s="2">
         <v>45352</v>
@@ -2705,20 +2518,17 @@
         <v>87</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="C80" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="D80" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="C80" s="1">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
+        <v>11</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F80" s="2">
         <v>45352</v>
@@ -2729,20 +2539,17 @@
         <v>88</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="C81" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="D81" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1">
+        <v>11</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
-      </c>
-      <c r="E81" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
       </c>
       <c r="F81" s="2">
         <v>45367</v>
@@ -2753,20 +2560,17 @@
         <v>89</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="C82" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D82" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="C82" s="1">
+        <v>12</v>
+      </c>
+      <c r="D82" s="1">
+        <v>11</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="F82" s="2">
         <v>45367</v>
@@ -2777,20 +2581,17 @@
         <v>90</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="C83" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="D83" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="C83" s="1">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
         <v>8</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F83" s="2">
         <v>45367</v>
@@ -2801,20 +2602,17 @@
         <v>91</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="C84" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D84" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="C84" s="1">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F84" s="2">
         <v>45367</v>
@@ -2825,19 +2623,16 @@
         <v>92</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="C85" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D85" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1">
         <v>7</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F85" s="2">
@@ -2849,20 +2644,17 @@
         <v>93</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="C86" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="D86" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>95</v>
+      </c>
+      <c r="C86" s="1">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1">
+        <v>11</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="F86" s="2">
         <v>45367</v>
@@ -2873,20 +2665,17 @@
         <v>94</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="C87" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="D87" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>95</v>
+      </c>
+      <c r="C87" s="1">
+        <v>11</v>
+      </c>
+      <c r="D87" s="1">
+        <v>15</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="F87" s="2">
         <v>45367</v>
@@ -2897,20 +2686,17 @@
         <v>95</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="C88" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="D88" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="C88" s="1">
+        <v>14</v>
+      </c>
+      <c r="D88" s="1">
+        <v>11</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="F88" s="2">
         <v>45367</v>
@@ -2921,20 +2707,17 @@
         <v>96</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="C89" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D89" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="C89" s="1">
+        <v>13</v>
+      </c>
+      <c r="D89" s="1">
+        <v>11</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="F89" s="2">
         <v>45367</v>
@@ -2945,20 +2728,17 @@
         <v>97</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="C90" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D90" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="C90" s="1">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1">
+        <v>7</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F90" s="2">
         <v>45367</v>
@@ -2969,20 +2749,17 @@
         <v>98</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="C91" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D91" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>84</v>
+      </c>
+      <c r="C91" s="1">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1">
+        <v>10</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F91" s="2">
         <v>45367</v>
@@ -2993,20 +2770,17 @@
         <v>99</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="C92" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D92" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="C92" s="1">
+        <v>8</v>
+      </c>
+      <c r="D92" s="1">
         <v>9</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F92" s="2">
         <v>45367</v>
@@ -3017,20 +2791,17 @@
         <v>100</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="C93" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="D93" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1">
+        <v>12</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F93" s="2">
         <v>45367</v>
@@ -3041,20 +2812,17 @@
         <v>101</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="C94" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="C94" s="1">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1">
         <v>15</v>
       </c>
-      <c r="D94" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
       <c r="E94" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="F94" s="2">
         <v>45367</v>
@@ -3065,19 +2833,16 @@
         <v>102</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="C95" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D95" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="C95" s="1">
+        <v>15</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F95" s="2">
@@ -3089,19 +2854,16 @@
         <v>103</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="C96" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C96" s="1">
+        <v>13</v>
+      </c>
+      <c r="D96" s="1">
         <v>8</v>
       </c>
-      <c r="D96" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
       <c r="E96" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F96" s="2">
@@ -3113,20 +2875,17 @@
         <v>104</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="C97" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="D97" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1">
+        <v>9</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F97" s="2">
         <v>45367</v>
@@ -3137,20 +2896,17 @@
         <v>105</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="C98" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="D98" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="C98" s="1">
+        <v>11</v>
+      </c>
+      <c r="D98" s="1">
+        <v>11</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="F98" s="2">
         <v>45367</v>
@@ -3161,20 +2917,17 @@
         <v>106</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="C99" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C99" s="1">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1">
+        <v>8</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F99" s="2">
         <v>45367</v>
@@ -3185,20 +2938,17 @@
         <v>107</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="C100" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D100" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="C100" s="1">
+        <v>8</v>
+      </c>
+      <c r="D100" s="1">
+        <v>14</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="F100" s="2">
         <v>45367</v>
@@ -3209,20 +2959,17 @@
         <v>108</v>
       </c>
       <c r="B101" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="C101" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D101" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="C101" s="1">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
+        <v>7</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F101" s="2">
         <v>45381</v>
@@ -3233,20 +2980,17 @@
         <v>114</v>
       </c>
       <c r="B102" s="1">
-        <f t="shared" ca="1" si="3"/>
         <v>95</v>
       </c>
-      <c r="C102" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D102" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+      <c r="C102" s="1">
+        <v>10</v>
+      </c>
+      <c r="D102" s="1">
+        <v>15</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" ref="E102:E131" ca="1" si="7">ROUND(C102*D102/12,0)</f>
-        <v>4</v>
+        <f t="shared" ref="E102:E131" si="2">ROUND(C102*D102/12,0)</f>
+        <v>13</v>
       </c>
       <c r="F102" s="2">
         <v>45381</v>
@@ -3257,20 +3001,17 @@
         <v>115</v>
       </c>
       <c r="B103" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="C103" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="D103" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="C103" s="1">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1">
+        <v>7</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F103" s="2">
         <v>45381</v>
@@ -3281,20 +3022,17 @@
         <v>116</v>
       </c>
       <c r="B104" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="C104" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D104" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="C104" s="1">
+        <v>15</v>
+      </c>
+      <c r="D104" s="1">
+        <v>12</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="F104" s="2">
         <v>45381</v>
@@ -3305,20 +3043,17 @@
         <v>117</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="C105" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="D105" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="C105" s="1">
         <v>13</v>
       </c>
+      <c r="D105" s="1">
+        <v>13</v>
+      </c>
       <c r="E105" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="F105" s="2">
         <v>45381</v>
@@ -3329,20 +3064,17 @@
         <v>118</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="C106" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C106" s="1">
+        <v>8</v>
+      </c>
+      <c r="D106" s="1">
         <v>14</v>
       </c>
-      <c r="D106" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
-      </c>
       <c r="E106" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F106" s="2">
         <v>45381</v>
@@ -3353,20 +3085,17 @@
         <v>119</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="C107" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="D107" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="2"/>
         <v>6</v>
-      </c>
-      <c r="E107" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
       </c>
       <c r="F107" s="2">
         <v>45381</v>
@@ -3377,20 +3106,17 @@
         <v>120</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="C108" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D108" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="C108" s="1">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1">
+        <v>13</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F108" s="2">
         <v>45381</v>
@@ -3401,20 +3127,17 @@
         <v>121</v>
       </c>
       <c r="B109" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="C109" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D109" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="C109" s="1">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1">
+        <v>14</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="F109" s="2">
         <v>45381</v>
@@ -3425,20 +3148,17 @@
         <v>122</v>
       </c>
       <c r="B110" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="C110" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="D110" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="C110" s="1">
+        <v>10</v>
+      </c>
+      <c r="D110" s="1">
+        <v>8</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F110" s="2">
         <v>45381</v>
@@ -3449,20 +3169,17 @@
         <v>123</v>
       </c>
       <c r="B111" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="C111" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="C111" s="1">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1">
         <v>14</v>
       </c>
-      <c r="D111" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
       <c r="E111" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F111" s="2">
         <v>45381</v>
@@ -3473,20 +3190,17 @@
         <v>124</v>
       </c>
       <c r="B112" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="C112" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C112" s="1">
         <v>14</v>
       </c>
-      <c r="D112" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+      <c r="D112" s="1">
+        <v>8</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F112" s="2">
         <v>45381</v>
@@ -3497,20 +3211,17 @@
         <v>125</v>
       </c>
       <c r="B113" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="C113" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D113" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="C113" s="1">
+        <v>8</v>
+      </c>
+      <c r="D113" s="1">
+        <v>14</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="2"/>
         <v>9</v>
-      </c>
-      <c r="E113" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
       </c>
       <c r="F113" s="2">
         <v>45381</v>
@@ -3521,20 +3232,17 @@
         <v>126</v>
       </c>
       <c r="B114" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="C114" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="D114" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C114" s="1">
+        <v>7</v>
+      </c>
+      <c r="D114" s="1">
+        <v>6</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F114" s="2">
         <v>45381</v>
@@ -3545,20 +3253,17 @@
         <v>127</v>
       </c>
       <c r="B115" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="C115" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D115" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1">
+        <v>10</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F115" s="2">
         <v>45381</v>
@@ -3569,20 +3274,17 @@
         <v>128</v>
       </c>
       <c r="B116" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="C116" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D116" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="C116" s="1">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1">
+        <v>12</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F116" s="2">
         <v>45381</v>
@@ -3593,20 +3295,17 @@
         <v>129</v>
       </c>
       <c r="B117" s="1">
-        <f t="shared" ref="B117:B131" ca="1" si="8">RANDBETWEEN(80, 95)</f>
-        <v>91</v>
-      </c>
-      <c r="C117" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D117" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="C117" s="1">
+        <v>14</v>
+      </c>
+      <c r="D117" s="1">
+        <v>8</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F117" s="2">
         <v>45381</v>
@@ -3617,20 +3316,17 @@
         <v>130</v>
       </c>
       <c r="B118" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="C118" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="D118" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="C118" s="1">
+        <v>12</v>
+      </c>
+      <c r="D118" s="1">
+        <v>12</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="F118" s="2">
         <v>45381</v>
@@ -3641,20 +3337,17 @@
         <v>131</v>
       </c>
       <c r="B119" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="C119" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D119" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="C119" s="1">
         <v>13</v>
       </c>
+      <c r="D119" s="1">
+        <v>15</v>
+      </c>
       <c r="E119" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="F119" s="2">
         <v>45381</v>
@@ -3665,20 +3358,17 @@
         <v>132</v>
       </c>
       <c r="B120" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="C120" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="D120" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="C120" s="1">
+        <v>10</v>
+      </c>
+      <c r="D120" s="1">
+        <v>13</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F120" s="2">
         <v>45381</v>
@@ -3689,20 +3379,17 @@
         <v>133</v>
       </c>
       <c r="B121" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="C121" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="D121" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>95</v>
+      </c>
+      <c r="C121" s="1">
+        <v>12</v>
+      </c>
+      <c r="D121" s="1">
+        <v>14</v>
       </c>
       <c r="E121" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="F121" s="2">
         <v>45392</v>
@@ -3713,20 +3400,17 @@
         <v>134</v>
       </c>
       <c r="B122" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="C122" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D122" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>92</v>
+      </c>
+      <c r="C122" s="1">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1">
+        <v>11</v>
       </c>
       <c r="E122" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F122" s="2">
         <v>45392</v>
@@ -3737,20 +3421,17 @@
         <v>135</v>
       </c>
       <c r="B123" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="C123" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="D123" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>84</v>
+      </c>
+      <c r="C123" s="1">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1">
+        <v>10</v>
       </c>
       <c r="E123" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F123" s="2">
         <v>45392</v>
@@ -3761,20 +3442,17 @@
         <v>136</v>
       </c>
       <c r="B124" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="C124" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="D124" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="C124" s="1">
+        <v>13</v>
+      </c>
+      <c r="D124" s="1">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1">
+        <f t="shared" si="2"/>
         <v>12</v>
-      </c>
-      <c r="E124" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
       </c>
       <c r="F124" s="2">
         <v>45392</v>
@@ -3785,20 +3463,17 @@
         <v>137</v>
       </c>
       <c r="B125" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="C125" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D125" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>91</v>
+      </c>
+      <c r="C125" s="1">
+        <v>13</v>
+      </c>
+      <c r="D125" s="1">
+        <v>10</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F125" s="2">
         <v>45392</v>
@@ -3809,20 +3484,17 @@
         <v>138</v>
       </c>
       <c r="B126" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="C126" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D126" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C126" s="1">
+        <v>10</v>
+      </c>
+      <c r="D126" s="1">
+        <v>7</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="F126" s="2">
         <v>45392</v>
@@ -3833,20 +3505,17 @@
         <v>139</v>
       </c>
       <c r="B127" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="C127" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="D127" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="C127" s="1">
         <v>14</v>
       </c>
+      <c r="D127" s="1">
+        <v>9</v>
+      </c>
       <c r="E127" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F127" s="2">
         <v>45392</v>
@@ -3857,20 +3526,17 @@
         <v>140</v>
       </c>
       <c r="B128" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="C128" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="D128" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="C128" s="1">
+        <v>11</v>
+      </c>
+      <c r="D128" s="1">
+        <v>15</v>
       </c>
       <c r="E128" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="F128" s="2">
         <v>45392</v>
@@ -3881,20 +3547,17 @@
         <v>141</v>
       </c>
       <c r="B129" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="C129" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D129" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>74</v>
+      </c>
+      <c r="C129" s="1">
+        <v>7</v>
+      </c>
+      <c r="D129" s="1">
+        <v>15</v>
       </c>
       <c r="E129" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="F129" s="2">
         <v>45392</v>
@@ -3905,20 +3568,17 @@
         <v>142</v>
       </c>
       <c r="B130" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="C130" s="3">
-        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="C130" s="1">
         <v>15</v>
       </c>
-      <c r="D130" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+      <c r="D130" s="1">
+        <v>9</v>
       </c>
       <c r="E130" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F130" s="2">
         <v>45392</v>
@@ -3929,20 +3589,17 @@
         <v>143</v>
       </c>
       <c r="B131" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="C131" s="3">
-        <f t="shared" ref="C131" ca="1" si="9">RANDBETWEEN(5, 15)</f>
-        <v>8</v>
-      </c>
-      <c r="D131" s="3">
-        <f t="shared" ref="D131" ca="1" si="10">RANDBETWEEN(6, 15)</f>
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="C131" s="1">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1">
+        <v>11</v>
       </c>
       <c r="E131" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F131" s="2">
         <v>45392</v>
